--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_features.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_features.xlsx
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.9516611099243164</v>
+        <v>0.9516613483428955</v>
       </c>
       <c r="D5">
-        <v>0.6613836884498596</v>
+        <v>0.6613869071006775</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0.8364314436912537</v>
+        <v>0.8364315629005432</v>
       </c>
       <c r="D6">
-        <v>0.01909179985523224</v>
+        <v>0.01909185573458672</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0.9440650343894958</v>
       </c>
       <c r="D7">
-        <v>0.552452564239502</v>
+        <v>0.5524523854255676</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -662,10 +662,10 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.8536970615386963</v>
+        <v>0.8536971807479858</v>
       </c>
       <c r="D10">
-        <v>0.03184463083744049</v>
+        <v>0.03184475004673004</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.9649896025657654</v>
+        <v>0.9649897217750549</v>
       </c>
       <c r="D11">
-        <v>0.8519405126571655</v>
+        <v>0.8519421219825745</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.8572351932525635</v>
+        <v>0.8572350740432739</v>
       </c>
       <c r="D12">
-        <v>0.03542864322662354</v>
+        <v>0.03542854264378548</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>

--- a/experiments/2022_scientific_reports/results/statistics/stats_cortisol_features.xlsx
+++ b/experiments/2022_scientific_reports/results/statistics/stats_cortisol_features.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="normality" sheetId="2" r:id="rId2"/>
-    <sheet name="pairwise_ttests" sheetId="3" r:id="rId3"/>
+    <sheet name="pairwise_tests" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -108,7 +108,7 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>Pairwise t-Tests</t>
+    <t>Pairwise Tests</t>
   </si>
 </sst>
 </file>
